--- a/pandas/files/stock_weather.xlsx
+++ b/pandas/files/stock_weather.xlsx
@@ -15,32 +15,32 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
+  <si>
+    <t>events</t>
+  </si>
   <si>
     <t>price</t>
   </si>
   <si>
-    <t>tickers</t>
-  </si>
-  <si>
-    <t>GOOGL</t>
-  </si>
-  <si>
-    <t>WMT</t>
-  </si>
-  <si>
-    <t>MSFT</t>
-  </si>
-  <si>
-    <t>BYE</t>
+    <t>Rain</t>
+  </si>
+  <si>
+    <t>Sunny</t>
+  </si>
+  <si>
+    <t>Snow</t>
+  </si>
+  <si>
+    <t>ef</t>
+  </si>
+  <si>
+    <t>ed2e</t>
   </si>
   <si>
     <t>day</t>
   </si>
   <si>
-    <t>events</t>
-  </si>
-  <si>
     <t>temp</t>
   </si>
   <si>
@@ -51,15 +51,6 @@
   </si>
   <si>
     <t>13/07/2018</t>
-  </si>
-  <si>
-    <t>Rain</t>
-  </si>
-  <si>
-    <t>Sunny</t>
-  </si>
-  <si>
-    <t>Snow</t>
   </si>
 </sst>
 </file>
@@ -435,7 +426,7 @@
       <c r="A2" s="1">
         <v>0</v>
       </c>
-      <c r="C2" t="s">
+      <c r="B2" t="s">
         <v>2</v>
       </c>
     </row>
@@ -443,29 +434,32 @@
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3">
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3">
         <v>55</v>
-      </c>
-      <c r="C3" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4">
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4">
         <v>67</v>
-      </c>
-      <c r="C4" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5">
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5">
         <v>88</v>
       </c>
     </row>
@@ -473,8 +467,8 @@
       <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="C6" t="s">
-        <v>5</v>
+      <c r="B6" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -492,10 +486,10 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>8</v>
@@ -509,7 +503,7 @@
         <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="D2">
         <v>45</v>
@@ -523,7 +517,7 @@
         <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="D3">
         <v>67</v>
@@ -537,7 +531,7 @@
         <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="D4">
         <v>89</v>
